--- a/450-cp-erreur-sur-un-type-dopération-du-patch-fhir-dans-un-scénario-bed-management/ig/CodeSystem-input-task-ror-codesystem.xlsx
+++ b/450-cp-erreur-sur-un-type-dopération-du-patch-fhir-dans-un-scénario-bed-management/ig/CodeSystem-input-task-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T16:25:02+00:00</t>
+    <t>2026-01-08T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
